--- a/results/pvalue_SIDER_rare_transporter_AUPR.xlsx
+++ b/results/pvalue_SIDER_rare_transporter_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.679</t>
+          <t>0.044</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.121</t>
+          <t>0.184</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.073</t>
+          <t>6.383</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.689</t>
+          <t>6.097</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.445</t>
+          <t>-2.896</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.961</t>
+          <t>-1.603</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16.661</t>
+          <t>16.643</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.986</t>
+          <t>17.965</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.135</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15.116</t>
+          <t>15.099</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.183</t>
+          <t>13.013</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
